--- a/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9ADFE7-A88E-4B80-9D39-BC1C8CB85442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CD338D-15A0-494A-B672-9482B7480F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C86164B7-A75B-415C-A8CB-FB8EC77AFD15}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B49D4C5-2B8E-4A8A-A73C-6F16F3891914}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>71,27%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>16,11%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,109 +196,103 @@
     <t>26,19%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>43,05%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>28,16%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>71,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,103 +304,109 @@
     <t>30,87%</t>
   </si>
   <si>
-    <t>26,4%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>73,6%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>25,46%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>7,63%</t>
@@ -415,31 +415,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,96%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>75,04%</t>
+    <t>76,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -448,73 +448,67 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>31,07%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>68,93%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
@@ -523,217 +517,217 @@
     <t>27,22%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C67A5-5A59-4F31-AD56-AC2C4E5435CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88CCF56-3C4D-4C21-998F-027D2B596E76}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1332,7 +1326,7 @@
         <v>380</v>
       </c>
       <c r="I5" s="7">
-        <v>380077</v>
+        <v>380076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1383,7 +1377,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1770,7 +1764,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>370257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -1800,13 +1794,13 @@
         <v>444098</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>828</v>
@@ -1815,13 +1809,13 @@
         <v>814355</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AFBE3-8F17-4D9F-8A74-54F9F71CDF04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C548ADF1-48FB-4422-BB8B-F9A904C12F9B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2020,13 +2014,13 @@
         <v>127914</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -2035,13 +2029,13 @@
         <v>257932</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -2050,13 +2044,13 @@
         <v>385846</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,10 +2065,10 @@
         <v>286484</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>98</v>
@@ -2488,10 +2482,10 @@
         <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -2500,13 +2494,13 @@
         <v>283509</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -2515,13 +2509,13 @@
         <v>433465</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>409680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -2551,13 +2545,13 @@
         <v>456356</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -2566,13 +2560,13 @@
         <v>866037</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91942E-1D5C-4571-A9A5-B1A097E499E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0A6F1-F02B-489E-AF37-2FB12B80CFF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2765,13 @@
         <v>96349</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -2786,13 +2780,13 @@
         <v>214634</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>282</v>
@@ -2801,13 +2795,13 @@
         <v>310982</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,16 +2813,16 @@
         <v>278</v>
       </c>
       <c r="D5" s="7">
-        <v>257553</v>
+        <v>257552</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>297</v>
@@ -2837,13 +2831,13 @@
         <v>340123</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>575</v>
@@ -2852,13 +2846,13 @@
         <v>597676</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,7 +2864,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2926,13 +2920,13 @@
         <v>22876</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -2941,13 +2935,13 @@
         <v>54734</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -2956,13 +2950,13 @@
         <v>77611</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2971,13 @@
         <v>169656</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
@@ -2992,13 +2986,13 @@
         <v>133340</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -3007,13 +3001,13 @@
         <v>302995</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3075,13 @@
         <v>5118</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3096,13 +3090,13 @@
         <v>8137</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3111,13 +3105,13 @@
         <v>13256</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3126,13 @@
         <v>36911</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3147,13 +3141,13 @@
         <v>25537</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3162,13 +3156,13 @@
         <v>62447</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3230,13 @@
         <v>124343</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3251,13 +3245,13 @@
         <v>277505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
@@ -3266,13 +3260,13 @@
         <v>401848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>464120</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -3302,13 +3296,13 @@
         <v>499000</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3317,13 +3311,13 @@
         <v>963120</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CD338D-15A0-494A-B672-9482B7480F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{007D8675-FC33-4BAE-B1FB-E76ED1B0205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B49D4C5-2B8E-4A8A-A73C-6F16F3891914}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{739D54B0-F318-434C-9A5C-1DAFFD5EA465}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>71,27%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>16,11%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,103 +196,109 @@
     <t>26,19%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>43,05%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>28,16%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>71,84%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,430 +310,418 @@
     <t>30,87%</t>
   </si>
   <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>68,93%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>16,18%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>83,82%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88CCF56-3C4D-4C21-998F-027D2B596E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9B3D33-C20D-4D44-B416-5D96CF7C351B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1326,7 +1320,7 @@
         <v>380</v>
       </c>
       <c r="I5" s="7">
-        <v>380076</v>
+        <v>380077</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1377,7 +1371,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1764,7 +1758,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1773,13 @@
         <v>370257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -1794,13 +1788,13 @@
         <v>444098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>828</v>
@@ -1809,13 +1803,13 @@
         <v>814355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C548ADF1-48FB-4422-BB8B-F9A904C12F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41386D7-A505-41FD-ADC2-8223990AABC5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1907,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2014,13 +2008,13 @@
         <v>127914</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -2029,13 +2023,13 @@
         <v>257932</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -2044,13 +2038,13 @@
         <v>385846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2059,13 @@
         <v>286484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -2080,13 +2074,13 @@
         <v>376613</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>623</v>
@@ -2095,13 +2089,13 @@
         <v>663096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2163,13 @@
         <v>20015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2184,13 +2178,13 @@
         <v>21153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2199,13 +2193,13 @@
         <v>41168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2214,13 @@
         <v>98650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -2235,13 +2229,13 @@
         <v>61921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>146</v>
@@ -2250,13 +2244,13 @@
         <v>160571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2318,13 @@
         <v>2028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2339,13 +2333,13 @@
         <v>4423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2354,13 +2348,13 @@
         <v>6452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2369,13 @@
         <v>24547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2390,13 +2384,13 @@
         <v>17823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -2405,13 +2399,13 @@
         <v>42369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2473,13 @@
         <v>149957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -2494,13 +2488,13 @@
         <v>283509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -2509,13 +2503,13 @@
         <v>433465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2524,13 @@
         <v>409680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -2545,13 +2539,13 @@
         <v>456356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -2560,13 +2554,13 @@
         <v>866037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0A6F1-F02B-489E-AF37-2FB12B80CFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB55F66-26C5-4106-8A93-CF030B1E85CF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2759,13 @@
         <v>96349</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -2780,13 +2774,13 @@
         <v>214634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>282</v>
@@ -2795,13 +2789,13 @@
         <v>310982</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,16 +2807,16 @@
         <v>278</v>
       </c>
       <c r="D5" s="7">
-        <v>257552</v>
+        <v>257553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>297</v>
@@ -2831,13 +2825,13 @@
         <v>340123</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>575</v>
@@ -2846,13 +2840,13 @@
         <v>597676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2858,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2920,13 +2914,13 @@
         <v>22876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -2935,13 +2929,13 @@
         <v>54734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -2950,13 +2944,13 @@
         <v>77611</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +2983,10 @@
         <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -3001,13 +2995,13 @@
         <v>302995</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3069,13 @@
         <v>5118</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3090,13 +3084,13 @@
         <v>8137</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3105,13 +3099,13 @@
         <v>13256</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3120,13 @@
         <v>36911</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3141,13 +3135,13 @@
         <v>25537</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3156,13 +3150,13 @@
         <v>62447</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3224,13 @@
         <v>124343</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3245,13 +3239,13 @@
         <v>277505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
@@ -3260,13 +3254,13 @@
         <v>401848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3275,13 @@
         <v>464120</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -3296,13 +3290,13 @@
         <v>499000</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3311,13 +3305,13 @@
         <v>963120</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007D8675-FC33-4BAE-B1FB-E76ED1B0205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8254280E-3330-407C-B87A-D15A1F2205F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{739D54B0-F318-434C-9A5C-1DAFFD5EA465}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CF13651-FF0D-49EE-A31D-3328DF3B1D97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,517 +76,520 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>24,21%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>61,31%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>20,39%</t>
@@ -595,133 +598,142 @@
     <t>16,18%</t>
   </si>
   <si>
+    <t>25,05%</t>
+  </si>
+  <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
+    <t>74,95%</t>
+  </si>
+  <si>
     <t>83,82%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9B3D33-C20D-4D44-B416-5D96CF7C351B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244667C0-4CF1-4BFF-8991-F66030CC1003}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1884,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41386D7-A505-41FD-ADC2-8223990AABC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80103715-AB95-4A7E-AE52-4F7DE6C704F1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2014,7 +2026,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -2023,13 +2035,13 @@
         <v>257932</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -2038,13 +2050,13 @@
         <v>385846</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2071,13 @@
         <v>286484</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -2074,13 +2086,13 @@
         <v>376613</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>623</v>
@@ -2089,13 +2101,13 @@
         <v>663096</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2175,13 @@
         <v>20015</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2178,13 +2190,13 @@
         <v>21153</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2193,13 +2205,13 @@
         <v>41168</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2226,13 @@
         <v>98650</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -2229,13 +2241,13 @@
         <v>61921</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>146</v>
@@ -2244,13 +2256,13 @@
         <v>160571</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2330,13 @@
         <v>2028</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2333,13 +2345,13 @@
         <v>4423</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2348,13 +2360,13 @@
         <v>6452</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2381,13 @@
         <v>24547</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2384,13 +2396,13 @@
         <v>17823</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -2399,13 +2411,13 @@
         <v>42369</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2485,13 @@
         <v>149957</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -2488,13 +2500,13 @@
         <v>283509</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -2503,13 +2515,13 @@
         <v>433465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2536,13 @@
         <v>409680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -2539,13 +2551,13 @@
         <v>456356</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -2554,7 +2566,7 @@
         <v>866037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
@@ -2635,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB55F66-26C5-4106-8A93-CF030B1E85CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5B6A2-FB5B-4DFB-91CD-39936F24A7FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,7 +2947,7 @@
         <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -2944,13 +2956,13 @@
         <v>77611</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2977,13 @@
         <v>169656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
@@ -2980,13 +2992,13 @@
         <v>133340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -2995,13 +3007,13 @@
         <v>302995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3081,13 @@
         <v>5118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3084,13 +3096,13 @@
         <v>8137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3099,13 +3111,13 @@
         <v>13256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3132,13 @@
         <v>36911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3135,13 +3147,13 @@
         <v>25537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3150,13 +3162,13 @@
         <v>62447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3236,13 @@
         <v>124343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3239,13 +3251,13 @@
         <v>277505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>362</v>
@@ -3254,13 +3266,13 @@
         <v>401848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3287,13 @@
         <v>464120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -3290,13 +3302,13 @@
         <v>499000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3305,13 +3317,13 @@
         <v>963120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
